--- a/base.xlsx
+++ b/base.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
   <si>
     <t>Innovadent odontologia</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Odontología Integral Stone Valley Dental Clinic</t>
-  </si>
-  <si>
-    <t>Pérez Mejía •Odontología Especializada•</t>
   </si>
 </sst>
 </file>
@@ -55,12 +52,18 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +87,11 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -97,10 +103,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -108,190 +114,310 @@
     <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:10" ht="13.5">
       <c r="A1" t="inlineStr">
         <is>
           <t>QUITO</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
-      <c r="A2" t="inlineStr">
+    <row r="2" spans="1:10" ht="13.5">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Organización Ecuatoriana de Estudiantes de Odontología</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>organizacionodontologia.ec@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5">
-      <c r="A3" t="inlineStr">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.5">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>We Smile - Odontología Especializada</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>wesmileec@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5">
-      <c r="A4" t="inlineStr">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Escuela de Odontología Universidad San Francisco de Quito</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>pregrado.odontologia@usfq.edu.ec</t>
         </is>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.5">
-      <c r="A5" t="inlineStr">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>LGR Odontología</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>info@lgr-odontologia.com</t>
         </is>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" t="inlineStr">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Odontología Especializada</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>odontoecuador@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5">
-      <c r="A7" t="inlineStr">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Odontologia Total Alta Especialidad en Niños y Adultos.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>victorhugolandazurimelo@yahoo.es</t>
         </is>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5">
-      <c r="A8" t="inlineStr">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Odontología Integral</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>pao_elizabeth2@hotmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5">
-      <c r="A9" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5">
-      <c r="A10" t="inlineStr">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>GM Odontología Integral</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>gmodontologos@hotmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5">
-      <c r="A11" t="inlineStr">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Bbbk Odontología</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>bbbkqodontologia@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
-      <c r="A12" t="inlineStr">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Ident Odontología Especializada</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>identclinica1@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
-      <c r="A13" t="inlineStr">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Souri Odontología Digital</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>clinicasouri@hotmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
-      <c r="A14" t="inlineStr">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Samdent Odontologia</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>juansb2013@hotmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
-      <c r="A15" t="inlineStr">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ORIS Odontología Especializada</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>orisodontologiaespecializada@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
-      <c r="A16" t="inlineStr">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>QuitoOdontologia</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>quitoodontologia@gmail.com</t>
         </is>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5">
       <c r="A17" t="inlineStr">
         <is>
           <t>Omegadent Odontología Integral</t>
@@ -303,7 +429,7 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.5">
+    <row r="18" spans="1:10" ht="13.5">
       <c r="A18" t="inlineStr">
         <is>
           <t>Dentis Odontologia</t>
@@ -315,7 +441,7 @@
         </is>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:10" ht="13.5">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -325,7 +451,7 @@
         </is>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:10" ht="13.5">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -335,7 +461,7 @@
         </is>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:10" ht="13.5">
       <c r="A21" t="inlineStr">
         <is>
           <t>Sonrio - Odontología popular</t>
@@ -347,7 +473,7 @@
         </is>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:10" ht="13.5">
       <c r="A22" t="inlineStr">
         <is>
           <t>Odontologia Estetica e Integral</t>
@@ -359,7 +485,7 @@
         </is>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:10" ht="13.5">
       <c r="A23" t="inlineStr">
         <is>
           <t>Odontología San Jorge Quito/Otavalo</t>
@@ -371,7 +497,7 @@
         </is>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" t="inlineStr">
         <is>
           <t>Clinica Odontologia Comunitaria</t>
@@ -383,7 +509,7 @@
         </is>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:10" ht="13.5">
       <c r="A25" t="inlineStr">
         <is>
           <t>Clínica Santa Apolonia Odontología Especializada</t>
@@ -395,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:10" ht="13.5">
       <c r="A26" t="inlineStr">
         <is>
           <t>SC Odontología</t>
@@ -407,7 +533,7 @@
         </is>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:10" ht="13.5">
       <c r="A27" t="inlineStr">
         <is>
           <t>Odontología "San Jorge" en Otavalo / Barrio Monserrath</t>
@@ -419,7 +545,7 @@
         </is>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:10" ht="13.5">
       <c r="A28" t="inlineStr">
         <is>
           <t>Odontologia</t>
@@ -431,7 +557,7 @@
         </is>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:10" ht="13.5">
       <c r="A29" t="inlineStr">
         <is>
           <t>Odontología.ug</t>
@@ -443,7 +569,7 @@
         </is>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5">
+    <row r="30" spans="1:10" ht="13.5">
       <c r="A30" t="inlineStr">
         <is>
           <t>Cde Odontología</t>
@@ -455,7 +581,7 @@
         </is>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.5">
+    <row r="31" spans="1:10" ht="13.5">
       <c r="A31" t="inlineStr">
         <is>
           <t>Odontología Especializada Clínica Dental</t>
@@ -467,7 +593,7 @@
         </is>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5">
+    <row r="32" spans="1:10" ht="13.5">
       <c r="A32" t="inlineStr">
         <is>
           <t>CEO Odontología</t>
@@ -479,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.5">
+    <row r="33" spans="1:10" ht="13.5">
       <c r="A33" t="inlineStr">
         <is>
           <t>Odontología Estética y Restauradora- Dra. Valeria Zeas</t>
@@ -491,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.5">
+    <row r="34" spans="1:10" ht="13.5">
       <c r="A34" t="inlineStr">
         <is>
           <t>Odontología Integrada</t>
@@ -503,7 +629,7 @@
         </is>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.5">
+    <row r="35" spans="1:10" ht="13.5">
       <c r="A35" t="inlineStr">
         <is>
           <t>Bucanova - Odontología Avanzada</t>
@@ -515,7 +641,7 @@
         </is>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13.5">
+    <row r="36" spans="1:10" ht="13.5">
       <c r="A36" t="inlineStr">
         <is>
           <t>Dr Mauricio Maldonado Odontologia.-Terapia Neural</t>
@@ -527,14 +653,14 @@
         </is>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13.5">
+    <row r="37" spans="1:10" ht="13.5">
       <c r="A37" t="inlineStr">
         <is>
           <t>STO DOMINGO</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.5">
+    <row r="38" spans="1:10" ht="13.5">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -542,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.5">
+    <row r="39" spans="1:10" ht="13.5">
       <c r="A39" t="inlineStr">
         <is>
           <t>Hospital General Clínica Bermúdez</t>
@@ -554,7 +680,7 @@
         </is>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13.5">
+    <row r="40" spans="1:10" ht="13.5">
       <c r="A40" t="inlineStr">
         <is>
           <t>DentyLand Consultorio Odontológico</t>
@@ -566,7 +692,7 @@
         </is>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.5">
+    <row r="41" spans="1:10" ht="13.5">
       <c r="A41" t="inlineStr">
         <is>
           <t>Consultorio Odontológico Espiritu Santo</t>
@@ -578,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.5">
+    <row r="42" spans="1:10" ht="13.5">
       <c r="A42" t="inlineStr">
         <is>
           <t>Colegio Odontologico Santo Domingo De Los Tsachilas Ecuador</t>
@@ -590,7 +716,7 @@
         </is>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.5">
+    <row r="43" spans="1:10" ht="13.5">
       <c r="A43" t="inlineStr">
         <is>
           <t>Santa ANA Express".</t>
@@ -602,9 +728,11 @@
         </is>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.5">
-      <c r="A44" t="s">
-        <v>3</v>
+    <row r="44" spans="1:10" ht="13.5">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pérez Mejía •Odontología Especializada•</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -612,7 +740,7 @@
         </is>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.5">
+    <row r="45" spans="1:10" ht="13.5">
       <c r="A45" t="inlineStr">
         <is>
           <t>Odontologia Almed</t>
@@ -621,6 +749,179 @@
       <c r="G45" t="inlineStr">
         <is>
           <t>josemiguelventuraarias@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Regional De Odontologia SRSM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>saludbucalmetropolitano@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="13.5">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dra. Yocasta De La Rosa - Odontología</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>yocastadelarosa@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.5">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Emily Kingsley / Odontología Integral y Pacientes Especiales</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>eksdental@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13.5">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Odontología Colón</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>odontocolon@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="13.5">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Odontología DR. De LEÓN</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>renecinni@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="13.5">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Odontología Integral Dras. Núñez-Mercedes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>drasnunezmercedes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13.5">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Centro de Odontología Estética- COES</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>coes37@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13.5">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dra.Cruz Odontologia Pediatrica</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>dra.cruzlafontaine@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="13.5">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Clinica de Odontología Integral y Ortodoncia</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>jorgeoglez@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sadent Odontologia Especializada</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>info@sadentrd.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="13.5">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Promed: Curso de preparación para las carreras de Medicina y Odontología</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>promed117.qro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="13.5">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Odontologia Integral</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>barza_@live.com.mx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13.5">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Infórmate Santo Domingo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>informatesd@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13.5">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>D-Care</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Odontología</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>cd.odonto.eli@gmail.com</t>
         </is>
       </c>
     </row>

--- a/base.xlsx
+++ b/base.xlsx
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
   <si>
     <t>Odontología</t>
   </si>
   <si>
     <t>Odontología Integral Stone Valley Dental Clinic</t>
-  </si>
-  <si>
-    <t>eksdental@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -72,7 +69,7 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -225,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -262,16 +265,31 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="4" borderId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0">
@@ -294,8 +312,8 @@
   </sheetPr>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0" tabSelected="1">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A46" workbookViewId="0" tabSelected="1">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,8 +1395,10 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="9" t="s">
-        <v>2</v>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>eksdental@gmail.com</t>
+        </is>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -1394,13 +1414,20 @@
           <t>Odontología Colón</t>
         </is>
       </c>
-      <c r="G47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="12" t="inlineStr">
         <is>
           <t>odontocolon@gmail.com</t>
         </is>
       </c>
-      <c r="L47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
@@ -1411,13 +1438,20 @@
           <t>Odontología DR. De LEÓN</t>
         </is>
       </c>
-      <c r="G48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="12" t="inlineStr">
         <is>
           <t>renecinni@gmail.com</t>
         </is>
       </c>
-      <c r="L48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
@@ -1428,13 +1462,20 @@
           <t>Odontología Integral Dras. Núñez-Mercedes</t>
         </is>
       </c>
-      <c r="G49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="12" t="inlineStr">
         <is>
           <t>drasnunezmercedes@gmail.com</t>
         </is>
       </c>
-      <c r="L49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
@@ -1445,13 +1486,20 @@
           <t>Centro de Odontología Estética- COES</t>
         </is>
       </c>
-      <c r="G50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="12" t="inlineStr">
         <is>
           <t>coes37@gmail.com</t>
         </is>
       </c>
-      <c r="L50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
@@ -1462,13 +1510,20 @@
           <t>Dra.Cruz Odontologia Pediatrica</t>
         </is>
       </c>
-      <c r="G51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="12" t="inlineStr">
         <is>
           <t>dra.cruzlafontaine@gmail.com</t>
         </is>
       </c>
-      <c r="L51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
@@ -1479,13 +1534,20 @@
           <t>Clinica de Odontología Integral y Ortodoncia</t>
         </is>
       </c>
-      <c r="G52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="12" t="inlineStr">
         <is>
           <t>jorgeoglez@hotmail.com</t>
         </is>
       </c>
-      <c r="L52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
@@ -1496,13 +1558,20 @@
           <t>Sadent Odontologia Especializada</t>
         </is>
       </c>
-      <c r="G53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="12" t="inlineStr">
         <is>
           <t>info@sadentrd.com</t>
         </is>
       </c>
-      <c r="L53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
@@ -1513,13 +1582,20 @@
           <t>Curso de preparación para las carreras de Medicina y Odontología</t>
         </is>
       </c>
-      <c r="G54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="12" t="inlineStr">
         <is>
           <t>promed117.qro@gmail.com</t>
         </is>
       </c>
-      <c r="L54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
@@ -1530,13 +1606,20 @@
           <t>Odontologia Integral</t>
         </is>
       </c>
-      <c r="G55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="12" t="inlineStr">
         <is>
           <t>barza_@live.com.mx</t>
         </is>
       </c>
-      <c r="L55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
@@ -1547,13 +1630,20 @@
           <t>Infórmate Santo Domingo</t>
         </is>
       </c>
-      <c r="G56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="12" t="inlineStr">
         <is>
           <t>informatesd@gmail.com</t>
         </is>
       </c>
-      <c r="L56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
@@ -1564,17 +1654,22 @@
           <t>D-Care</t>
         </is>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="12" t="inlineStr">
         <is>
           <t>cd.odonto.eli@gmail.com</t>
         </is>
       </c>
-      <c r="I57" s="14"/>
-      <c r="L57" s="13"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
@@ -1585,14 +1680,20 @@
           <t>Odontologia Animal Colombia</t>
         </is>
       </c>
-      <c r="E58" s="14"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="12" t="inlineStr">
         <is>
           <t>odontologiaanimalcolombia@gmail.com</t>
         </is>
       </c>
-      <c r="L58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
@@ -1603,13 +1704,20 @@
           <t>Odontólogo</t>
         </is>
       </c>
-      <c r="G59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="12" t="inlineStr">
         <is>
           <t>walther1018@gmail.com</t>
         </is>
       </c>
-      <c r="L59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
@@ -1620,30 +1728,44 @@
           <t>ASOEXFUSM -Odontólogos</t>
         </is>
       </c>
-      <c r="G60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
       <c r="H60" s="12" t="inlineStr">
         <is>
           <t>asoexfusm@gmail.com</t>
         </is>
       </c>
-      <c r="L60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="inlineStr">
+      <c r="B61" s="16" t="inlineStr">
         <is>
           <t>Grupo de Odontologos Especialistas Universidad Nacional</t>
         </is>
       </c>
-      <c r="G61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="12" t="inlineStr">
         <is>
           <t>odontounal@hotmail.com</t>
         </is>
       </c>
-      <c r="L61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2">
@@ -1654,605 +1776,612 @@
           <t>Odontólogos venezolanos en Bogotá</t>
         </is>
       </c>
-      <c r="G62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
       <c r="H62" s="12" t="inlineStr">
         <is>
           <t>clemenrudas26@gmail.com</t>
         </is>
       </c>
-      <c r="L62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="14"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="inlineStr">
+      <c r="B63" s="17" t="inlineStr">
         <is>
           <t>Odontologos Colombianos</t>
         </is>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="12" t="inlineStr">
+      <c r="G63" s="18"/>
+      <c r="H63" s="19" t="inlineStr">
         <is>
           <t>odontologoscolombianos@gmail.com</t>
         </is>
       </c>
-      <c r="L63" s="13"/>
+      <c r="L63" s="18"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="inlineStr">
+      <c r="B64" s="17" t="inlineStr">
         <is>
           <t>Mi Odontólogo Fabián Lizarazo</t>
         </is>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="12" t="inlineStr">
+      <c r="F64" s="20"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19" t="inlineStr">
         <is>
           <t>odontofalica@gmail.com</t>
         </is>
       </c>
-      <c r="L64" s="13"/>
+      <c r="L64" s="18"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="inlineStr">
+      <c r="B65" s="17" t="inlineStr">
         <is>
           <t>Odontologos cali</t>
         </is>
       </c>
-      <c r="G65" s="13"/>
+      <c r="G65" s="18"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>odontocard@hotmail.com</t>
         </is>
       </c>
-      <c r="L65" s="13"/>
+      <c r="L65" s="18"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="inlineStr">
+      <c r="B66" s="19" t="inlineStr">
         <is>
           <t>Odontólogo - Juan David Sánchez Males</t>
         </is>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="12" t="inlineStr">
+      <c r="G66" s="18"/>
+      <c r="H66" s="19" t="inlineStr">
         <is>
           <t>juandaodontologo@gmail.com</t>
         </is>
       </c>
-      <c r="L66" s="13"/>
+      <c r="L66" s="18"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="12" t="inlineStr">
+      <c r="B67" s="19" t="inlineStr">
         <is>
           <t>Dm_Odontologos</t>
         </is>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="12" t="inlineStr">
+      <c r="G67" s="18"/>
+      <c r="H67" s="19" t="inlineStr">
         <is>
           <t>dm_odontologos@hotmail.com</t>
         </is>
       </c>
-      <c r="L67" s="13"/>
+      <c r="L67" s="18"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="inlineStr">
+      <c r="B68" s="19" t="inlineStr">
         <is>
           <t>V&amp;D Odontologos</t>
         </is>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="12" t="inlineStr">
+      <c r="G68" s="18"/>
+      <c r="H68" s="19" t="inlineStr">
         <is>
           <t>vdodontologos@gmail.com</t>
         </is>
       </c>
-      <c r="L68" s="13"/>
+      <c r="L68" s="18"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="inlineStr">
+      <c r="B69" s="19" t="inlineStr">
         <is>
           <t>Odontólogos Especialistas</t>
         </is>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="12" t="inlineStr">
+      <c r="G69" s="18"/>
+      <c r="H69" s="19" t="inlineStr">
         <is>
           <t>citasodesa@hotmail.com</t>
         </is>
       </c>
-      <c r="L69" s="13"/>
+      <c r="L69" s="18"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="12" t="inlineStr">
+      <c r="B70" s="19" t="inlineStr">
         <is>
           <t>Odontólogo Javier Anteliz</t>
         </is>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="12" t="inlineStr">
+      <c r="G70" s="18"/>
+      <c r="H70" s="19" t="inlineStr">
         <is>
           <t>javier_anteliz@hotmail.com</t>
         </is>
       </c>
-      <c r="L70" s="13"/>
+      <c r="L70" s="18"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="12" t="inlineStr">
+      <c r="B71" s="19" t="inlineStr">
         <is>
           <t>JD Odontologos Integrales</t>
         </is>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="12" t="inlineStr">
+      <c r="G71" s="18"/>
+      <c r="H71" s="19" t="inlineStr">
         <is>
           <t>jdodontologosintegrales@gmail.com</t>
         </is>
       </c>
-      <c r="L71" s="13"/>
+      <c r="L71" s="18"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="12" t="inlineStr">
+      <c r="B72" s="19" t="inlineStr">
         <is>
           <t>Salleg Odontólogos</t>
         </is>
       </c>
-      <c r="G72" s="13"/>
+      <c r="G72" s="18"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>hernandezsallegortodoncia@gmail.com</t>
         </is>
       </c>
-      <c r="L72" s="13"/>
+      <c r="L72" s="18"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="inlineStr">
+      <c r="B73" s="19" t="inlineStr">
         <is>
           <t>ABC Odontólogos</t>
         </is>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="12" t="inlineStr">
+      <c r="G73" s="18"/>
+      <c r="H73" s="19" t="inlineStr">
         <is>
           <t>abcodontoespe@hotmail.com</t>
         </is>
       </c>
-      <c r="L73" s="13"/>
+      <c r="L73" s="18"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="12" t="inlineStr">
+      <c r="B74" s="19" t="inlineStr">
         <is>
           <t>Odontólogo, Esp. Estética Dental Alexander Rodriguez</t>
         </is>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="12" t="inlineStr">
+      <c r="G74" s="18"/>
+      <c r="H74" s="19" t="inlineStr">
         <is>
           <t>alexanderrodriguezed@gmail.com</t>
         </is>
       </c>
-      <c r="L74" s="13"/>
+      <c r="L74" s="18"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="inlineStr">
+      <c r="B75" s="19" t="inlineStr">
         <is>
           <t>Odontólogo Juan Carlos Rios</t>
         </is>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="12" t="inlineStr">
+      <c r="G75" s="18"/>
+      <c r="H75" s="19" t="inlineStr">
         <is>
           <t>info@juancarlosriosodontologo.com</t>
         </is>
       </c>
-      <c r="L75" s="13"/>
+      <c r="L75" s="18"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="12" t="inlineStr">
+      <c r="B76" s="19" t="inlineStr">
         <is>
           <t>Oscar Benavides - Odontólogo Especialista</t>
         </is>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="12" t="inlineStr">
+      <c r="G76" s="18"/>
+      <c r="H76" s="19" t="inlineStr">
         <is>
           <t>droscarbenavides.contacto@gmail.com</t>
         </is>
       </c>
-      <c r="L76" s="13"/>
+      <c r="L76" s="18"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="12" t="inlineStr">
+      <c r="B77" s="19" t="inlineStr">
         <is>
           <t>Ortho-Health odontólogos especialistas</t>
         </is>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="12" t="inlineStr">
+      <c r="G77" s="18"/>
+      <c r="H77" s="19" t="inlineStr">
         <is>
           <t>ortho-health@hotmail.com</t>
         </is>
       </c>
-      <c r="L77" s="13"/>
+      <c r="L77" s="18"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="inlineStr">
+      <c r="B78" s="19" t="inlineStr">
         <is>
           <t>Odontólogo Ferney Zuluaga</t>
         </is>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="12" t="inlineStr">
+      <c r="G78" s="18"/>
+      <c r="H78" s="19" t="inlineStr">
         <is>
           <t>dr.ferneyzuluaga@gmail.com</t>
         </is>
       </c>
-      <c r="L78" s="13"/>
+      <c r="L78" s="18"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="12" t="inlineStr">
+      <c r="B79" s="19" t="inlineStr">
         <is>
           <t>Odontologo German Aristizabal Montes</t>
         </is>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="12" t="inlineStr">
+      <c r="G79" s="18"/>
+      <c r="H79" s="19" t="inlineStr">
         <is>
           <t>mancho1616@hotmail.com</t>
         </is>
       </c>
-      <c r="L79" s="13"/>
+      <c r="L79" s="18"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="12" t="inlineStr">
+      <c r="B80" s="19" t="inlineStr">
         <is>
           <t>Dr. Jesus Mendoza Odontologo</t>
         </is>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="12" t="inlineStr">
+      <c r="G80" s="18"/>
+      <c r="H80" s="19" t="inlineStr">
         <is>
           <t>jesusmendozagarcia@hotmail.com</t>
         </is>
       </c>
-      <c r="L80" s="13"/>
+      <c r="L80" s="18"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="12" t="inlineStr">
+      <c r="B81" s="19" t="inlineStr">
         <is>
           <t>Odontologo Sneider Arbelaez</t>
         </is>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="12" t="inlineStr">
+      <c r="G81" s="18"/>
+      <c r="H81" s="19" t="inlineStr">
         <is>
           <t>dr.sneiderarbelaez@gmail.com</t>
         </is>
       </c>
-      <c r="L81" s="13"/>
+      <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="12" t="inlineStr">
+      <c r="B82" s="19" t="inlineStr">
         <is>
           <t>Odontologo Teodoro Gomez Rodriguez</t>
         </is>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="12" t="inlineStr">
+      <c r="G82" s="18"/>
+      <c r="H82" s="19" t="inlineStr">
         <is>
           <t>teodorogomezrodriguez@yahoo.es</t>
         </is>
       </c>
-      <c r="L82" s="13"/>
+      <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="12" t="inlineStr">
+      <c r="B83" s="19" t="inlineStr">
         <is>
           <t>Felipe González odontologo</t>
         </is>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="12" t="inlineStr">
+      <c r="G83" s="18"/>
+      <c r="H83" s="19" t="inlineStr">
         <is>
           <t>felipegonzalezodontologia@gmail.com</t>
         </is>
       </c>
-      <c r="L83" s="13"/>
+      <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="12" t="inlineStr">
+      <c r="B84" s="19" t="inlineStr">
         <is>
           <t>Dr. Andrés Wintaco - Odontólogo</t>
         </is>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="12" t="inlineStr">
+      <c r="G84" s="18"/>
+      <c r="H84" s="19" t="inlineStr">
         <is>
           <t>oralsteticwintaco@gmail.com</t>
         </is>
       </c>
-      <c r="L84" s="13"/>
+      <c r="L84" s="18"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="inlineStr">
+      <c r="B85" s="19" t="inlineStr">
         <is>
           <t>Dr. Cristian Prado Odontólogo</t>
         </is>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="12" t="inlineStr">
+      <c r="G85" s="18"/>
+      <c r="H85" s="19" t="inlineStr">
         <is>
           <t>cnpo22@gmail.com</t>
         </is>
       </c>
-      <c r="L85" s="13"/>
+      <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="12" t="inlineStr">
+      <c r="B86" s="19" t="inlineStr">
         <is>
           <t>Diego Echeverry Odontólogo estético</t>
         </is>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="12" t="inlineStr">
+      <c r="G86" s="18"/>
+      <c r="H86" s="19" t="inlineStr">
         <is>
           <t>oddiegoecheverry@gmail.com</t>
         </is>
       </c>
-      <c r="L86" s="13"/>
+      <c r="L86" s="18"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="inlineStr">
+      <c r="B87" s="19" t="inlineStr">
         <is>
           <t>Odontologo Gerardo Martinez</t>
         </is>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="12" t="inlineStr">
+      <c r="G87" s="18"/>
+      <c r="H87" s="19" t="inlineStr">
         <is>
           <t>megavira2009@live.com</t>
         </is>
       </c>
-      <c r="L87" s="13"/>
+      <c r="L87" s="18"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="12" t="inlineStr">
+      <c r="B88" s="19" t="inlineStr">
         <is>
           <t>Odontologos La 73</t>
         </is>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="12" t="inlineStr">
+      <c r="G88" s="18"/>
+      <c r="H88" s="19" t="inlineStr">
         <is>
           <t>odontologosla73@gmail.com</t>
         </is>
       </c>
-      <c r="L88" s="13"/>
+      <c r="L88" s="18"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="12" t="inlineStr">
+      <c r="B89" s="19" t="inlineStr">
         <is>
           <t>Dr. Orlando Gómez - Odontólogo</t>
         </is>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="12" t="inlineStr">
+      <c r="G89" s="18"/>
+      <c r="H89" s="19" t="inlineStr">
         <is>
           <t>ojesus1706@hotmail.com</t>
         </is>
       </c>
-      <c r="L89" s="13"/>
+      <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="12" t="inlineStr">
+      <c r="B90" s="19" t="inlineStr">
         <is>
           <t>odontologos de colombia caldas</t>
         </is>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="12" t="inlineStr">
+      <c r="G90" s="18"/>
+      <c r="H90" s="19" t="inlineStr">
         <is>
           <t>caldas@odontologosdecolombia.com</t>
         </is>
       </c>
-      <c r="L90" s="13"/>
+      <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="12"/>
-      <c r="L91" s="13"/>
+      <c r="B91" s="19"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="L91" s="18"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="12"/>
-      <c r="L92" s="13"/>
+      <c r="B92" s="19"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
+      <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="12"/>
-      <c r="L93" s="13"/>
+      <c r="B93" s="19"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="12"/>
-      <c r="L94" s="13"/>
+      <c r="B94" s="19"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+      <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="12"/>
-      <c r="L95" s="13"/>
+      <c r="B95" s="19"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+      <c r="L95" s="18"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="12"/>
-      <c r="L96" s="13"/>
+      <c r="B96" s="19"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="12"/>
-      <c r="L97" s="13"/>
+      <c r="B97" s="19"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="12"/>
-      <c r="L98" s="13"/>
+      <c r="B98" s="19"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="19"/>
+      <c r="L98" s="18"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="12"/>
-      <c r="L99" s="13"/>
+      <c r="B99" s="19"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="19"/>
+      <c r="L99" s="18"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="12"/>
-      <c r="L100" s="13"/>
+      <c r="B100" s="19"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="19"/>
+      <c r="L100" s="18"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="12"/>
-      <c r="L101" s="13"/>
+      <c r="B101" s="19"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="19"/>
+      <c r="L101" s="18"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="23"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -2279,8 +2408,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -2307,8 +2435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
